--- a/biology/Zoologie/Cossoninae/Cossoninae.xlsx
+++ b/biology/Zoologie/Cossoninae/Cossoninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cossoninae sont une sous-famille d'insectes coléoptères de la famille des Curculionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des représentants de cette sous-famille sont xylobiontes. Aussi bien au stade larvaire qu'au stade adulte, ils se nourrissent de tissus morts de plantes: angiospermes, conifères et divers bois, plus rarement de feuilles d'agaves, de palmiers ou de fougères. Les imagos de certains genres vivent dans la litière forestière[1]. Ils sont parfois associés avec les fourmis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des représentants de cette sous-famille sont xylobiontes. Aussi bien au stade larvaire qu'au stade adulte, ils se nourrissent de tissus morts de plantes: angiospermes, conifères et divers bois, plus rarement de feuilles d'agaves, de palmiers ou de fougères. Les imagos de certains genres vivent dans la litière forestière. Ils sont parfois associés avec les fourmis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des coléoptères de petite taille, mesurant en général de 2 à 7 millimètres de longueur, avec un corps allongé, dont le dessous est recouvert d'une pilosité rare et de stries. Parfois les écailles sont épaisses. Le rostre est court et large portant à l'épistome des poils sensoriels (seulement deux parfois)[2]. Quelques espèces possèdent une tête dont la dimension s'est réduite au cours de l'évolution. Les pattes sont courtes dans la plupart des cas.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des coléoptères de petite taille, mesurant en général de 2 à 7 millimètres de longueur, avec un corps allongé, dont le dessous est recouvert d'une pilosité rare et de stries. Parfois les écailles sont épaisses. Le rostre est court et large portant à l'épistome des poils sensoriels (seulement deux parfois). Quelques espèces possèdent une tête dont la dimension s'est réduite au cours de l'évolution. Les pattes sont courtes dans la plupart des cas.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Tribus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acamptini LeConte, 1876
 Acanthinomerini Voss, 1972
